--- a/03-Heat equation/heat2D.xlsx
+++ b/03-Heat equation/heat2D.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastien\Sync\!partage\MEC6215\DEVOIRS (new)\Parabolique\Heat2D_ARRAYFIRE\statement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Namvar\ArrayFire-Programming\03-Heat equation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52511C69-9D0F-462B-95BB-44DA076E93FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{908EE9AC-BFFE-4FB4-AA60-768EC5F90ACE}"/>
+    <workbookView xWindow="5580" yWindow="3552" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
@@ -854,24 +853,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B4EF2-974B-471C-8DBB-47B4450BA879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
@@ -881,19 +880,19 @@
       </c>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="2:5" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="24" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>0</v>
       </c>
@@ -907,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -915,7 +914,7 @@
       <c r="D9" s="31"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>0.01</v>
       </c>
@@ -923,59 +922,69 @@
         <f>1/50</f>
         <v>0.02</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>1.05260234860594E-3</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>0.01</v>
       </c>
       <c r="C11" s="6">
         <v>0.01</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9" t="e">
+      <c r="D11" s="14">
+        <v>2.6328718625562297E-4</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" ref="E11:E14" si="0">LOG(D10/D11)/LOG(2)</f>
-        <v>#DIV/0!</v>
+        <v>1.9992513042775135</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>0.01</v>
       </c>
       <c r="C12" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10" t="e">
+      <c r="D12" s="13">
+        <v>6.5830356062299001E-5</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.9998124034335101</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>0.01</v>
       </c>
       <c r="C13" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="11" t="e">
+      <c r="D13" s="14">
+        <v>1.6458124330821599E-5</v>
+      </c>
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.999953074287415</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>0.01</v>
       </c>
       <c r="C14" s="7">
         <v>1.25E-3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="12" t="e">
+      <c r="D14" s="15">
+        <v>4.1145645453301497E-6</v>
+      </c>
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.9999882669092779</v>
       </c>
     </row>
   </sheetData>
